--- a/va_facility_data_2025-02-20/Sarpy County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sarpy%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sarpy County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sarpy%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2f440c3588df4e25b8bcfb6f9efc383a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6bdf5b2dfbfe4578ad577118b59db9d7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R087967205e294223844cb4ecd214cdf2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R3d750a9efb3845a6b97113d506c0450f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R236d01d870484138b0c7582a8f546262"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3eecea3e1f45455da352381fed25137a"/>
   </x:sheets>
 </x:workbook>
 </file>
